--- a/common/テーブル定義書.xlsx
+++ b/common/テーブル定義書.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MST_Users" sheetId="1" r:id="rId1"/>
     <sheet name="News" sheetId="5" r:id="rId2"/>
     <sheet name="NewsCategories" sheetId="10" r:id="rId3"/>
-    <sheet name="Programs" sheetId="8" r:id="rId4"/>
+    <sheet name="Activities" sheetId="8" r:id="rId4"/>
     <sheet name="Newspapers" sheetId="9" r:id="rId5"/>
     <sheet name="MobileAppConfig" sheetId="7" r:id="rId6"/>
     <sheet name="テンプレート" sheetId="4" r:id="rId7"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="101">
   <si>
     <t>テーブル名</t>
     <phoneticPr fontId="1"/>
@@ -365,11 +365,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>nvarchar(500), NULL以外</t>
+    <t>bit, NULL以外</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>IsAvailable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nvarchar(500), NULL以外</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -468,10 +472,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DateTime2, NULL以外</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NewsCategories</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -503,6 +503,47 @@
   </si>
   <si>
     <t>カテゴリのラベルカラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CanWaitable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IsClosed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WaitingTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待ち時間が有るアクティビティか</t>
+    <rPh sb="0" eb="1">
+      <t>マチジカンガアル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローズしているか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待ち時間（分）</t>
+    <rPh sb="0" eb="1">
+      <t>マチジカｎ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フｎ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1390,7 +1431,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -1571,7 +1612,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1709,7 +1750,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
@@ -2019,7 +2060,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
       <c r="N11" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -2131,7 +2172,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -2143,7 +2184,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="14"/>
       <c r="N13" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -2156,7 +2197,7 @@
       <c r="W13" s="10"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
@@ -2193,7 +2234,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -2218,7 +2259,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
@@ -3750,7 +3791,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -3764,7 +3805,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -4248,7 +4289,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -4273,7 +4314,7 @@
       <c r="W13" s="10"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
@@ -4310,7 +4351,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -4335,7 +4376,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
@@ -5601,8 +5642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7:AZ7"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13:AZ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7652,8 +7693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ37"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:X12"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7881,7 +7922,7 @@
       <c r="W4" s="42"/>
       <c r="X4" s="43"/>
       <c r="Y4" s="33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z4" s="34"/>
       <c r="AA4" s="34"/>
@@ -7918,7 +7959,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -7932,7 +7973,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -8056,7 +8097,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
@@ -8168,7 +8209,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -8180,7 +8221,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -8193,7 +8234,7 @@
       <c r="W9" s="10"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="44" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="Z9" s="44"/>
       <c r="AA9" s="44"/>
@@ -8230,7 +8271,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="15" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -8242,7 +8283,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="15" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
@@ -8255,7 +8296,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="10" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
@@ -8292,7 +8333,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -8304,7 +8345,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
       <c r="N11" s="9" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -8317,7 +8358,7 @@
       <c r="W11" s="10"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="9" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
@@ -8354,7 +8395,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -8362,11 +8403,11 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="9" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -8378,36 +8419,36 @@
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="10"/>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
-      <c r="AV12" s="10"/>
-      <c r="AW12" s="10"/>
-      <c r="AX12" s="10"/>
-      <c r="AY12" s="10"/>
-      <c r="AZ12" s="37"/>
+      <c r="Y12" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="44"/>
+      <c r="AR12" s="44"/>
+      <c r="AS12" s="44"/>
+      <c r="AT12" s="44"/>
+      <c r="AU12" s="44"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="45"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -8415,33 +8456,33 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="9" t="s">
-        <v>68</v>
+      <c r="D13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
@@ -8472,193 +8513,217 @@
       <c r="AZ13" s="37"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="13"/>
-      <c r="AW14" s="13"/>
-      <c r="AX14" s="13"/>
-      <c r="AY14" s="13"/>
-      <c r="AZ14" s="38"/>
+      <c r="D14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="37"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="13"/>
-      <c r="AW15" s="13"/>
-      <c r="AX15" s="13"/>
-      <c r="AY15" s="13"/>
-      <c r="AZ15" s="38"/>
+      <c r="D15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="37"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="13"/>
-      <c r="AW16" s="13"/>
-      <c r="AX16" s="13"/>
-      <c r="AY16" s="13"/>
-      <c r="AZ16" s="38"/>
+      <c r="D16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="37"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="9"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
@@ -8853,82 +8918,82 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="10"/>
-      <c r="AN21" s="10"/>
-      <c r="AO21" s="10"/>
-      <c r="AP21" s="10"/>
-      <c r="AQ21" s="10"/>
-      <c r="AR21" s="10"/>
-      <c r="AS21" s="10"/>
-      <c r="AT21" s="10"/>
-      <c r="AU21" s="10"/>
-      <c r="AV21" s="10"/>
-      <c r="AW21" s="10"/>
-      <c r="AX21" s="10"/>
-      <c r="AY21" s="10"/>
-      <c r="AZ21" s="37"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="44"/>
+      <c r="AJ21" s="44"/>
+      <c r="AK21" s="44"/>
+      <c r="AL21" s="44"/>
+      <c r="AM21" s="44"/>
+      <c r="AN21" s="44"/>
+      <c r="AO21" s="44"/>
+      <c r="AP21" s="44"/>
+      <c r="AQ21" s="44"/>
+      <c r="AR21" s="44"/>
+      <c r="AS21" s="44"/>
+      <c r="AT21" s="44"/>
+      <c r="AU21" s="44"/>
+      <c r="AV21" s="44"/>
+      <c r="AW21" s="44"/>
+      <c r="AX21" s="44"/>
+      <c r="AY21" s="44"/>
+      <c r="AZ21" s="45"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="9"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
@@ -8961,163 +9026,163 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="13"/>
-      <c r="AP23" s="13"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="13"/>
-      <c r="AS23" s="13"/>
-      <c r="AT23" s="13"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="13"/>
-      <c r="AW23" s="13"/>
-      <c r="AX23" s="13"/>
-      <c r="AY23" s="13"/>
-      <c r="AZ23" s="38"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="37"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="13"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
-      <c r="AT24" s="13"/>
-      <c r="AU24" s="13"/>
-      <c r="AV24" s="13"/>
-      <c r="AW24" s="13"/>
-      <c r="AX24" s="13"/>
-      <c r="AY24" s="13"/>
-      <c r="AZ24" s="38"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="10"/>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="37"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="13"/>
-      <c r="AL25" s="13"/>
-      <c r="AM25" s="13"/>
-      <c r="AN25" s="13"/>
-      <c r="AO25" s="13"/>
-      <c r="AP25" s="13"/>
-      <c r="AQ25" s="13"/>
-      <c r="AR25" s="13"/>
-      <c r="AS25" s="13"/>
-      <c r="AT25" s="13"/>
-      <c r="AU25" s="13"/>
-      <c r="AV25" s="13"/>
-      <c r="AW25" s="13"/>
-      <c r="AX25" s="13"/>
-      <c r="AY25" s="13"/>
-      <c r="AZ25" s="38"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
+      <c r="AV25" s="10"/>
+      <c r="AW25" s="10"/>
+      <c r="AX25" s="10"/>
+      <c r="AY25" s="10"/>
+      <c r="AZ25" s="37"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
@@ -9782,7 +9847,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -9963,7 +10028,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -9977,7 +10042,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
@@ -10027,7 +10092,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -10039,7 +10104,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -10052,7 +10117,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
@@ -10089,7 +10154,7 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -10101,7 +10166,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
@@ -10114,7 +10179,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
@@ -10275,7 +10340,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -10287,7 +10352,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="14"/>
       <c r="N9" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -10300,7 +10365,7 @@
       <c r="W9" s="10"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
@@ -10337,7 +10402,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -10362,7 +10427,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>

--- a/common/テーブル定義書.xlsx
+++ b/common/テーブル定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MST_Users" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="102">
   <si>
     <t>テーブル名</t>
     <phoneticPr fontId="1"/>
@@ -468,10 +468,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DateTime2, NULL以外</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NewsCategories</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -543,6 +539,17 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>フｎ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RelationalURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連リンク</t>
+    <rPh sb="0" eb="2">
+      <t>カンレンリンク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3525,8 +3532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ37"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4103,7 +4110,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -4114,21 +4121,21 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="11"/>
+      <c r="N10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
       <c r="Y10" s="44" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="Z10" s="44"/>
       <c r="AA10" s="44"/>
@@ -4164,33 +4171,33 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="10" t="s">
-        <v>41</v>
+      <c r="D11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
@@ -4226,33 +4233,33 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="9" t="s">
-        <v>42</v>
+      <c r="D12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
@@ -4289,7 +4296,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -4301,7 +4308,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="14"/>
       <c r="N13" s="9" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -4314,7 +4321,7 @@
       <c r="W13" s="10"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="9" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
@@ -4351,7 +4358,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -4363,7 +4370,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="14"/>
       <c r="N14" s="9" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -4376,7 +4383,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
@@ -4407,274 +4414,282 @@
       <c r="AZ14" s="37"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="13"/>
-      <c r="AW15" s="13"/>
-      <c r="AX15" s="13"/>
-      <c r="AY15" s="13"/>
-      <c r="AZ15" s="38"/>
+      <c r="D15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="37"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="13"/>
-      <c r="AW16" s="13"/>
-      <c r="AX16" s="13"/>
-      <c r="AY16" s="13"/>
-      <c r="AZ16" s="38"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="37"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="13"/>
-      <c r="AP17" s="13"/>
-      <c r="AQ17" s="13"/>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="13"/>
-      <c r="AT17" s="13"/>
-      <c r="AU17" s="13"/>
-      <c r="AV17" s="13"/>
-      <c r="AW17" s="13"/>
-      <c r="AX17" s="13"/>
-      <c r="AY17" s="13"/>
-      <c r="AZ17" s="38"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="10"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
+      <c r="AY17" s="10"/>
+      <c r="AZ17" s="37"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="13"/>
-      <c r="AU18" s="13"/>
-      <c r="AV18" s="13"/>
-      <c r="AW18" s="13"/>
-      <c r="AX18" s="13"/>
-      <c r="AY18" s="13"/>
-      <c r="AZ18" s="38"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="37"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="13"/>
-      <c r="AV19" s="13"/>
-      <c r="AW19" s="13"/>
-      <c r="AX19" s="13"/>
-      <c r="AY19" s="13"/>
-      <c r="AZ19" s="38"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="10"/>
+      <c r="AX19" s="10"/>
+      <c r="AY19" s="10"/>
+      <c r="AZ19" s="37"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
@@ -5663,7 +5678,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -5908,7 +5923,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -5920,7 +5935,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -5933,7 +5948,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
@@ -5970,7 +5985,7 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -5982,7 +5997,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
@@ -5995,7 +6010,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
@@ -7693,7 +7708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+    <sheetView zoomScale="116" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1:AE2"/>
     </sheetView>
   </sheetViews>
@@ -8209,7 +8224,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -8234,7 +8249,7 @@
       <c r="W9" s="10"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z9" s="44"/>
       <c r="AA9" s="44"/>
@@ -8271,7 +8286,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -8283,7 +8298,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
@@ -8296,7 +8311,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
@@ -8333,7 +8348,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -8345,7 +8360,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
       <c r="N11" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -8358,7 +8373,7 @@
       <c r="W11" s="10"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>

--- a/common/テーブル定義書.xlsx
+++ b/common/テーブル定義書.xlsx
@@ -2,23 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0" checkCompatibility="1"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junpei/Documents/GitHub/17nsj/17nsj-doc/common/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MST_Users" sheetId="1" r:id="rId1"/>
     <sheet name="News" sheetId="5" r:id="rId2"/>
-    <sheet name="NewsCategories" sheetId="10" r:id="rId3"/>
+    <sheet name="NewsCategories" sheetId="12" r:id="rId3"/>
     <sheet name="Activities" sheetId="8" r:id="rId4"/>
-    <sheet name="Newspapers" sheetId="9" r:id="rId5"/>
-    <sheet name="MobileAppConfig" sheetId="7" r:id="rId6"/>
-    <sheet name="テンプレート" sheetId="4" r:id="rId7"/>
+    <sheet name="ActivityCategories" sheetId="10" r:id="rId5"/>
+    <sheet name="Newspapers" sheetId="9" r:id="rId6"/>
+    <sheet name="Movies" sheetId="11" r:id="rId7"/>
+    <sheet name="MobileAppConfig" sheetId="7" r:id="rId8"/>
+    <sheet name="テンプレート" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="117">
   <si>
     <t>テーブル名</t>
     <phoneticPr fontId="1"/>
@@ -318,10 +320,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Programs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プログラムタイトル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -468,10 +466,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NewsCategories</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CategoryName</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -499,6 +493,10 @@
   </si>
   <si>
     <t>カテゴリのラベルカラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Activities</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -551,6 +549,76 @@
     <rPh sb="0" eb="2">
       <t>カンレンリンク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int,NULL以外</t>
+    <rPh sb="8" eb="10">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Outline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nvarchar(100), NULL以外</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ThumbnailURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サムネイルURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク先URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Movies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ActivityCategories</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewsCategories</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RelationalURL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1007,7 +1075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1138,6 +1206,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1415,6 +1484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AZ37"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
@@ -1438,7 +1508,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -1475,7 +1545,7 @@
       <c r="AJ1" s="19"/>
       <c r="AK1" s="19"/>
       <c r="AL1" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM1" s="22"/>
       <c r="AN1" s="22"/>
@@ -1619,7 +1689,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1757,7 +1827,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
@@ -1931,7 +2001,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -1956,7 +2026,7 @@
       <c r="W9" s="10"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
@@ -2067,7 +2137,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
       <c r="N11" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -2179,7 +2249,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -2191,7 +2261,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="14"/>
       <c r="N13" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -2204,7 +2274,7 @@
       <c r="W13" s="10"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
@@ -2241,7 +2311,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -2266,7 +2336,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
@@ -3530,10 +3600,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AZ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C16"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3590,7 +3661,7 @@
       <c r="AJ1" s="19"/>
       <c r="AK1" s="19"/>
       <c r="AL1" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AM1" s="22"/>
       <c r="AN1" s="22"/>
@@ -3798,7 +3869,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -3812,7 +3883,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -3874,7 +3945,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
@@ -3936,7 +4007,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
@@ -4110,7 +4181,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -4135,7 +4206,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z10" s="44"/>
       <c r="AA10" s="44"/>
@@ -4246,7 +4317,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
@@ -4358,7 +4429,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -4370,7 +4441,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="14"/>
       <c r="N14" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -4383,7 +4454,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
@@ -4420,7 +4491,7 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -4445,7 +4516,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
@@ -5655,10 +5726,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AZ37"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13:AZ13"/>
+      <selection activeCell="Y3" sqref="Y3:AZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5678,7 +5750,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -5698,7 +5770,7 @@
       <c r="W1" s="19"/>
       <c r="X1" s="19"/>
       <c r="Y1" s="24">
-        <v>43058</v>
+        <v>43038</v>
       </c>
       <c r="Z1" s="22"/>
       <c r="AA1" s="22"/>
@@ -5715,7 +5787,7 @@
       <c r="AJ1" s="19"/>
       <c r="AK1" s="19"/>
       <c r="AL1" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM1" s="22"/>
       <c r="AN1" s="22"/>
@@ -5923,7 +5995,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -5935,7 +6007,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -5948,7 +6020,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
@@ -5985,7 +6057,7 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -5997,7 +6069,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
@@ -6010,7 +6082,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
@@ -7706,10 +7778,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AZ37"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AE2"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7729,7 +7802,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -7766,7 +7839,7 @@
       <c r="AJ1" s="19"/>
       <c r="AK1" s="19"/>
       <c r="AL1" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM1" s="22"/>
       <c r="AN1" s="22"/>
@@ -7937,7 +8010,7 @@
       <c r="W4" s="42"/>
       <c r="X4" s="43"/>
       <c r="Y4" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z4" s="34"/>
       <c r="AA4" s="34"/>
@@ -7974,7 +8047,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -7988,7 +8061,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -8050,7 +8123,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
@@ -8063,7 +8136,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
@@ -8112,7 +8185,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
@@ -8125,7 +8198,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z7" s="44"/>
       <c r="AA7" s="44"/>
@@ -8224,7 +8297,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -8235,21 +8308,21 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="11"/>
+      <c r="N9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
       <c r="Y9" s="44" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="44"/>
       <c r="AA9" s="44"/>
@@ -8285,61 +8358,61 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="D10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
-      <c r="AV10" s="10"/>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="10"/>
-      <c r="AZ10" s="37"/>
+      <c r="N10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="44"/>
+      <c r="AO10" s="44"/>
+      <c r="AP10" s="44"/>
+      <c r="AQ10" s="44"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="44"/>
+      <c r="AU10" s="44"/>
+      <c r="AV10" s="44"/>
+      <c r="AW10" s="44"/>
+      <c r="AX10" s="44"/>
+      <c r="AY10" s="44"/>
+      <c r="AZ10" s="45"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -8347,33 +8420,33 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="9" t="s">
-        <v>99</v>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
@@ -8410,7 +8483,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -8418,11 +8491,11 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
       <c r="N12" s="9" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -8434,36 +8507,36 @@
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="44"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="44"/>
-      <c r="AR12" s="44"/>
-      <c r="AS12" s="44"/>
-      <c r="AT12" s="44"/>
-      <c r="AU12" s="44"/>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="45"/>
+      <c r="Y12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10"/>
+      <c r="AZ12" s="37"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -8471,61 +8544,61 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="D13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="10"/>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="10"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
-      <c r="AV13" s="10"/>
-      <c r="AW13" s="10"/>
-      <c r="AX13" s="10"/>
-      <c r="AY13" s="10"/>
-      <c r="AZ13" s="37"/>
+      <c r="N13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="44"/>
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="44"/>
+      <c r="AX13" s="44"/>
+      <c r="AY13" s="44"/>
+      <c r="AZ13" s="45"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -8533,33 +8606,33 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="9" t="s">
-        <v>42</v>
+      <c r="D14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
@@ -8596,7 +8669,7 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -8608,7 +8681,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="14"/>
       <c r="N15" s="9" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -8621,7 +8694,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="9" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
@@ -8658,7 +8731,7 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -8670,7 +8743,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="14"/>
       <c r="N16" s="9" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -8714,10 +8787,14 @@
       <c r="AZ16" s="37"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
+      <c r="A17" s="7">
+        <v>14</v>
+      </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -8727,7 +8804,9 @@
       <c r="K17" s="12"/>
       <c r="L17" s="13"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="9"/>
+      <c r="N17" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
@@ -8738,7 +8817,9 @@
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
       <c r="X17" s="11"/>
-      <c r="Y17" s="9"/>
+      <c r="Y17" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
@@ -8781,17 +8862,17 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="11"/>
       <c r="Y18" s="44"/>
       <c r="Z18" s="44"/>
       <c r="AA18" s="44"/>
@@ -8846,34 +8927,34 @@
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
-      <c r="AH19" s="44"/>
-      <c r="AI19" s="44"/>
-      <c r="AJ19" s="44"/>
-      <c r="AK19" s="44"/>
-      <c r="AL19" s="44"/>
-      <c r="AM19" s="44"/>
-      <c r="AN19" s="44"/>
-      <c r="AO19" s="44"/>
-      <c r="AP19" s="44"/>
-      <c r="AQ19" s="44"/>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
-      <c r="AT19" s="44"/>
-      <c r="AU19" s="44"/>
-      <c r="AV19" s="44"/>
-      <c r="AW19" s="44"/>
-      <c r="AX19" s="44"/>
-      <c r="AY19" s="44"/>
-      <c r="AZ19" s="45"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="10"/>
+      <c r="AX19" s="10"/>
+      <c r="AY19" s="10"/>
+      <c r="AZ19" s="37"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
@@ -8886,9 +8967,9 @@
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
       <c r="N20" s="9"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -8900,34 +8981,34 @@
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="44"/>
-      <c r="AI20" s="44"/>
-      <c r="AJ20" s="44"/>
-      <c r="AK20" s="44"/>
-      <c r="AL20" s="44"/>
-      <c r="AM20" s="44"/>
-      <c r="AN20" s="44"/>
-      <c r="AO20" s="44"/>
-      <c r="AP20" s="44"/>
-      <c r="AQ20" s="44"/>
-      <c r="AR20" s="44"/>
-      <c r="AS20" s="44"/>
-      <c r="AT20" s="44"/>
-      <c r="AU20" s="44"/>
-      <c r="AV20" s="44"/>
-      <c r="AW20" s="44"/>
-      <c r="AX20" s="44"/>
-      <c r="AY20" s="44"/>
-      <c r="AZ20" s="45"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="10"/>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
+      <c r="AV20" s="10"/>
+      <c r="AW20" s="10"/>
+      <c r="AX20" s="10"/>
+      <c r="AY20" s="10"/>
+      <c r="AZ20" s="37"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
@@ -9839,10 +9920,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AZ37"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31:X31"/>
+      <selection activeCell="I1" sqref="I1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9862,7 +9944,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -9882,7 +9964,7 @@
       <c r="W1" s="19"/>
       <c r="X1" s="19"/>
       <c r="Y1" s="24">
-        <v>43042</v>
+        <v>43058</v>
       </c>
       <c r="Z1" s="22"/>
       <c r="AA1" s="22"/>
@@ -9899,7 +9981,7 @@
       <c r="AJ1" s="19"/>
       <c r="AK1" s="19"/>
       <c r="AL1" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM1" s="22"/>
       <c r="AN1" s="22"/>
@@ -10042,8 +10124,2060 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34"/>
+      <c r="AS4" s="34"/>
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="34"/>
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="36"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="37"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="37"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="37"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="44"/>
+      <c r="AO8" s="44"/>
+      <c r="AP8" s="44"/>
+      <c r="AQ8" s="44"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="44"/>
+      <c r="AT8" s="44"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="44"/>
+      <c r="AW8" s="44"/>
+      <c r="AX8" s="44"/>
+      <c r="AY8" s="44"/>
+      <c r="AZ8" s="45"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="44"/>
+      <c r="AI9" s="44"/>
+      <c r="AJ9" s="44"/>
+      <c r="AK9" s="44"/>
+      <c r="AL9" s="44"/>
+      <c r="AM9" s="44"/>
+      <c r="AN9" s="44"/>
+      <c r="AO9" s="44"/>
+      <c r="AP9" s="44"/>
+      <c r="AQ9" s="44"/>
+      <c r="AR9" s="44"/>
+      <c r="AS9" s="44"/>
+      <c r="AT9" s="44"/>
+      <c r="AU9" s="44"/>
+      <c r="AV9" s="44"/>
+      <c r="AW9" s="44"/>
+      <c r="AX9" s="44"/>
+      <c r="AY9" s="44"/>
+      <c r="AZ9" s="45"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="44"/>
+      <c r="AO10" s="44"/>
+      <c r="AP10" s="44"/>
+      <c r="AQ10" s="44"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="44"/>
+      <c r="AU10" s="44"/>
+      <c r="AV10" s="44"/>
+      <c r="AW10" s="44"/>
+      <c r="AX10" s="44"/>
+      <c r="AY10" s="44"/>
+      <c r="AZ10" s="45"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="10"/>
+      <c r="AZ11" s="37"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10"/>
+      <c r="AZ12" s="37"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="37"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="37"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="38"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="38"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="38"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="38"/>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="13"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="13"/>
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="38"/>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="38"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="38"/>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="38"/>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="38"/>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="13"/>
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="13"/>
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="13"/>
+      <c r="AZ24" s="38"/>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="13"/>
+      <c r="AM25" s="13"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="13"/>
+      <c r="AP25" s="13"/>
+      <c r="AQ25" s="13"/>
+      <c r="AR25" s="13"/>
+      <c r="AS25" s="13"/>
+      <c r="AT25" s="13"/>
+      <c r="AU25" s="13"/>
+      <c r="AV25" s="13"/>
+      <c r="AW25" s="13"/>
+      <c r="AX25" s="13"/>
+      <c r="AY25" s="13"/>
+      <c r="AZ25" s="38"/>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="13"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="13"/>
+      <c r="AT26" s="13"/>
+      <c r="AU26" s="13"/>
+      <c r="AV26" s="13"/>
+      <c r="AW26" s="13"/>
+      <c r="AX26" s="13"/>
+      <c r="AY26" s="13"/>
+      <c r="AZ26" s="38"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="13"/>
+      <c r="AM27" s="13"/>
+      <c r="AN27" s="13"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="13"/>
+      <c r="AQ27" s="13"/>
+      <c r="AR27" s="13"/>
+      <c r="AS27" s="13"/>
+      <c r="AT27" s="13"/>
+      <c r="AU27" s="13"/>
+      <c r="AV27" s="13"/>
+      <c r="AW27" s="13"/>
+      <c r="AX27" s="13"/>
+      <c r="AY27" s="13"/>
+      <c r="AZ27" s="38"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="13"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="13"/>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="13"/>
+      <c r="AS28" s="13"/>
+      <c r="AT28" s="13"/>
+      <c r="AU28" s="13"/>
+      <c r="AV28" s="13"/>
+      <c r="AW28" s="13"/>
+      <c r="AX28" s="13"/>
+      <c r="AY28" s="13"/>
+      <c r="AZ28" s="38"/>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="13"/>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="13"/>
+      <c r="AS29" s="13"/>
+      <c r="AT29" s="13"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="13"/>
+      <c r="AW29" s="13"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="13"/>
+      <c r="AZ29" s="38"/>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="13"/>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="13"/>
+      <c r="AT30" s="13"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="13"/>
+      <c r="AW30" s="13"/>
+      <c r="AX30" s="13"/>
+      <c r="AY30" s="13"/>
+      <c r="AZ30" s="38"/>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="13"/>
+      <c r="AM31" s="13"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="13"/>
+      <c r="AQ31" s="13"/>
+      <c r="AR31" s="13"/>
+      <c r="AS31" s="13"/>
+      <c r="AT31" s="13"/>
+      <c r="AU31" s="13"/>
+      <c r="AV31" s="13"/>
+      <c r="AW31" s="13"/>
+      <c r="AX31" s="13"/>
+      <c r="AY31" s="13"/>
+      <c r="AZ31" s="38"/>
+    </row>
+    <row r="32" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="39"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="39"/>
+      <c r="AQ32" s="39"/>
+      <c r="AR32" s="39"/>
+      <c r="AS32" s="39"/>
+      <c r="AT32" s="39"/>
+      <c r="AU32" s="39"/>
+      <c r="AV32" s="39"/>
+      <c r="AW32" s="39"/>
+      <c r="AX32" s="39"/>
+      <c r="AY32" s="39"/>
+      <c r="AZ32" s="40"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="158">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:X32"/>
+    <mergeCell ref="Y32:AZ32"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:X30"/>
+    <mergeCell ref="Y30:AZ30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:X31"/>
+    <mergeCell ref="Y31:AZ31"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:X28"/>
+    <mergeCell ref="Y28:AZ28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:X29"/>
+    <mergeCell ref="Y29:AZ29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:X26"/>
+    <mergeCell ref="Y26:AZ26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:X27"/>
+    <mergeCell ref="Y27:AZ27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="Y24:AZ24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:X25"/>
+    <mergeCell ref="Y25:AZ25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:X22"/>
+    <mergeCell ref="Y22:AZ22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:X23"/>
+    <mergeCell ref="Y23:AZ23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="Y20:AZ20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:X21"/>
+    <mergeCell ref="Y21:AZ21"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="Y18:AZ18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="Y19:AZ19"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="Y16:AZ16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:X17"/>
+    <mergeCell ref="Y17:AZ17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="Y14:AZ14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="Y15:AZ15"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="Y12:AZ12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="Y13:AZ13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="Y10:AZ10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:X11"/>
+    <mergeCell ref="Y11:AZ11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="Y8:AZ8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="Y9:AZ9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:X6"/>
+    <mergeCell ref="Y6:AZ6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:X7"/>
+    <mergeCell ref="Y7:AZ7"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="Y4:AZ4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="Y5:AZ5"/>
+    <mergeCell ref="AT1:AW2"/>
+    <mergeCell ref="AX1:AZ2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:X3"/>
+    <mergeCell ref="Y3:AZ3"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:S2"/>
+    <mergeCell ref="T1:X2"/>
+    <mergeCell ref="Y1:AE2"/>
+    <mergeCell ref="AF1:AK2"/>
+    <mergeCell ref="AL1:AS2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="52" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:AZ37"/>
+  <sheetViews>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="66" width="2.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="24">
+        <v>43042</v>
+      </c>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="22">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="25"/>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="26"/>
+    </row>
+    <row r="3" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="28"/>
+    </row>
+    <row r="4" spans="1:52" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -10057,7 +12191,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
@@ -10107,7 +12241,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -10119,7 +12253,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -10132,7 +12266,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
@@ -10169,7 +12303,7 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -10181,7 +12315,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
@@ -10194,7 +12328,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
@@ -10243,7 +12377,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
@@ -10355,7 +12489,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -10367,7 +12501,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="14"/>
       <c r="N9" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -10380,7 +12514,7 @@
       <c r="W9" s="10"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
@@ -10417,7 +12551,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -10442,7 +12576,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
@@ -11281,2047 +13415,6 @@
       <c r="AX25" s="10"/>
       <c r="AY25" s="10"/>
       <c r="AZ25" s="37"/>
-    </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="13"/>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-      <c r="AP26" s="13"/>
-      <c r="AQ26" s="13"/>
-      <c r="AR26" s="13"/>
-      <c r="AS26" s="13"/>
-      <c r="AT26" s="13"/>
-      <c r="AU26" s="13"/>
-      <c r="AV26" s="13"/>
-      <c r="AW26" s="13"/>
-      <c r="AX26" s="13"/>
-      <c r="AY26" s="13"/>
-      <c r="AZ26" s="38"/>
-    </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="13"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="13"/>
-      <c r="AP27" s="13"/>
-      <c r="AQ27" s="13"/>
-      <c r="AR27" s="13"/>
-      <c r="AS27" s="13"/>
-      <c r="AT27" s="13"/>
-      <c r="AU27" s="13"/>
-      <c r="AV27" s="13"/>
-      <c r="AW27" s="13"/>
-      <c r="AX27" s="13"/>
-      <c r="AY27" s="13"/>
-      <c r="AZ27" s="38"/>
-    </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="13"/>
-      <c r="AM28" s="13"/>
-      <c r="AN28" s="13"/>
-      <c r="AO28" s="13"/>
-      <c r="AP28" s="13"/>
-      <c r="AQ28" s="13"/>
-      <c r="AR28" s="13"/>
-      <c r="AS28" s="13"/>
-      <c r="AT28" s="13"/>
-      <c r="AU28" s="13"/>
-      <c r="AV28" s="13"/>
-      <c r="AW28" s="13"/>
-      <c r="AX28" s="13"/>
-      <c r="AY28" s="13"/>
-      <c r="AZ28" s="38"/>
-    </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="13"/>
-      <c r="AN29" s="13"/>
-      <c r="AO29" s="13"/>
-      <c r="AP29" s="13"/>
-      <c r="AQ29" s="13"/>
-      <c r="AR29" s="13"/>
-      <c r="AS29" s="13"/>
-      <c r="AT29" s="13"/>
-      <c r="AU29" s="13"/>
-      <c r="AV29" s="13"/>
-      <c r="AW29" s="13"/>
-      <c r="AX29" s="13"/>
-      <c r="AY29" s="13"/>
-      <c r="AZ29" s="38"/>
-    </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="13"/>
-      <c r="AM30" s="13"/>
-      <c r="AN30" s="13"/>
-      <c r="AO30" s="13"/>
-      <c r="AP30" s="13"/>
-      <c r="AQ30" s="13"/>
-      <c r="AR30" s="13"/>
-      <c r="AS30" s="13"/>
-      <c r="AT30" s="13"/>
-      <c r="AU30" s="13"/>
-      <c r="AV30" s="13"/>
-      <c r="AW30" s="13"/>
-      <c r="AX30" s="13"/>
-      <c r="AY30" s="13"/>
-      <c r="AZ30" s="38"/>
-    </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="13"/>
-      <c r="AM31" s="13"/>
-      <c r="AN31" s="13"/>
-      <c r="AO31" s="13"/>
-      <c r="AP31" s="13"/>
-      <c r="AQ31" s="13"/>
-      <c r="AR31" s="13"/>
-      <c r="AS31" s="13"/>
-      <c r="AT31" s="13"/>
-      <c r="AU31" s="13"/>
-      <c r="AV31" s="13"/>
-      <c r="AW31" s="13"/>
-      <c r="AX31" s="13"/>
-      <c r="AY31" s="13"/>
-      <c r="AZ31" s="38"/>
-    </row>
-    <row r="32" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
-      <c r="AK32" s="39"/>
-      <c r="AL32" s="39"/>
-      <c r="AM32" s="39"/>
-      <c r="AN32" s="39"/>
-      <c r="AO32" s="39"/>
-      <c r="AP32" s="39"/>
-      <c r="AQ32" s="39"/>
-      <c r="AR32" s="39"/>
-      <c r="AS32" s="39"/>
-      <c r="AT32" s="39"/>
-      <c r="AU32" s="39"/>
-      <c r="AV32" s="39"/>
-      <c r="AW32" s="39"/>
-      <c r="AX32" s="39"/>
-      <c r="AY32" s="39"/>
-      <c r="AZ32" s="40"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="158">
-    <mergeCell ref="AT1:AW2"/>
-    <mergeCell ref="AX1:AZ2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:X3"/>
-    <mergeCell ref="Y3:AZ3"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:S2"/>
-    <mergeCell ref="T1:X2"/>
-    <mergeCell ref="Y1:AE2"/>
-    <mergeCell ref="AF1:AK2"/>
-    <mergeCell ref="AL1:AS2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="Y4:AZ4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="Y5:AZ5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:X6"/>
-    <mergeCell ref="Y6:AZ6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:X7"/>
-    <mergeCell ref="Y7:AZ7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="Y8:AZ8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="Y9:AZ9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="Y10:AZ10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:X11"/>
-    <mergeCell ref="Y11:AZ11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="Y12:AZ12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="Y13:AZ13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="Y14:AZ14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="Y15:AZ15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="Y16:AZ16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:X17"/>
-    <mergeCell ref="Y17:AZ17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="Y18:AZ18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="Y19:AZ19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="Y20:AZ20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:X21"/>
-    <mergeCell ref="Y21:AZ21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:X22"/>
-    <mergeCell ref="Y22:AZ22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:X23"/>
-    <mergeCell ref="Y23:AZ23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:X24"/>
-    <mergeCell ref="Y24:AZ24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:X25"/>
-    <mergeCell ref="Y25:AZ25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:X26"/>
-    <mergeCell ref="Y26:AZ26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:X27"/>
-    <mergeCell ref="Y27:AZ27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:X28"/>
-    <mergeCell ref="Y28:AZ28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:X29"/>
-    <mergeCell ref="Y29:AZ29"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:X32"/>
-    <mergeCell ref="Y32:AZ32"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:X30"/>
-    <mergeCell ref="Y30:AZ30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:X31"/>
-    <mergeCell ref="Y31:AZ31"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="52" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ37"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:X6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="66" width="2.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="24">
-        <v>43039</v>
-      </c>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="22">
-        <v>1</v>
-      </c>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="25"/>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="23"/>
-      <c r="AY2" s="23"/>
-      <c r="AZ2" s="26"/>
-    </row>
-    <row r="3" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="28"/>
-    </row>
-    <row r="4" spans="1:52" ht="16" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="34"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="36"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10"/>
-      <c r="AZ5" s="37"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="37"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="10"/>
-      <c r="AW7" s="10"/>
-      <c r="AX7" s="10"/>
-      <c r="AY7" s="10"/>
-      <c r="AZ7" s="37"/>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
-      <c r="AY8" s="10"/>
-      <c r="AZ8" s="37"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="13"/>
-      <c r="AW9" s="13"/>
-      <c r="AX9" s="13"/>
-      <c r="AY9" s="13"/>
-      <c r="AZ9" s="38"/>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="13"/>
-      <c r="AX10" s="13"/>
-      <c r="AY10" s="13"/>
-      <c r="AZ10" s="38"/>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="13"/>
-      <c r="AW11" s="13"/>
-      <c r="AX11" s="13"/>
-      <c r="AY11" s="13"/>
-      <c r="AZ11" s="38"/>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="13"/>
-      <c r="AW12" s="13"/>
-      <c r="AX12" s="13"/>
-      <c r="AY12" s="13"/>
-      <c r="AZ12" s="38"/>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="13"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
-      <c r="AV13" s="13"/>
-      <c r="AW13" s="13"/>
-      <c r="AX13" s="13"/>
-      <c r="AY13" s="13"/>
-      <c r="AZ13" s="38"/>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="13"/>
-      <c r="AW14" s="13"/>
-      <c r="AX14" s="13"/>
-      <c r="AY14" s="13"/>
-      <c r="AZ14" s="38"/>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="13"/>
-      <c r="AW15" s="13"/>
-      <c r="AX15" s="13"/>
-      <c r="AY15" s="13"/>
-      <c r="AZ15" s="38"/>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="13"/>
-      <c r="AW16" s="13"/>
-      <c r="AX16" s="13"/>
-      <c r="AY16" s="13"/>
-      <c r="AZ16" s="38"/>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="13"/>
-      <c r="AP17" s="13"/>
-      <c r="AQ17" s="13"/>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="13"/>
-      <c r="AT17" s="13"/>
-      <c r="AU17" s="13"/>
-      <c r="AV17" s="13"/>
-      <c r="AW17" s="13"/>
-      <c r="AX17" s="13"/>
-      <c r="AY17" s="13"/>
-      <c r="AZ17" s="38"/>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="13"/>
-      <c r="AU18" s="13"/>
-      <c r="AV18" s="13"/>
-      <c r="AW18" s="13"/>
-      <c r="AX18" s="13"/>
-      <c r="AY18" s="13"/>
-      <c r="AZ18" s="38"/>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="13"/>
-      <c r="AV19" s="13"/>
-      <c r="AW19" s="13"/>
-      <c r="AX19" s="13"/>
-      <c r="AY19" s="13"/>
-      <c r="AZ19" s="38"/>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13"/>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="13"/>
-      <c r="AX20" s="13"/>
-      <c r="AY20" s="13"/>
-      <c r="AZ20" s="38"/>
-    </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="13"/>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="13"/>
-      <c r="AW21" s="13"/>
-      <c r="AX21" s="13"/>
-      <c r="AY21" s="13"/>
-      <c r="AZ21" s="38"/>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
-      <c r="AZ22" s="38"/>
-    </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="13"/>
-      <c r="AP23" s="13"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="13"/>
-      <c r="AS23" s="13"/>
-      <c r="AT23" s="13"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="13"/>
-      <c r="AW23" s="13"/>
-      <c r="AX23" s="13"/>
-      <c r="AY23" s="13"/>
-      <c r="AZ23" s="38"/>
-    </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="13"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
-      <c r="AT24" s="13"/>
-      <c r="AU24" s="13"/>
-      <c r="AV24" s="13"/>
-      <c r="AW24" s="13"/>
-      <c r="AX24" s="13"/>
-      <c r="AY24" s="13"/>
-      <c r="AZ24" s="38"/>
-    </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="13"/>
-      <c r="AL25" s="13"/>
-      <c r="AM25" s="13"/>
-      <c r="AN25" s="13"/>
-      <c r="AO25" s="13"/>
-      <c r="AP25" s="13"/>
-      <c r="AQ25" s="13"/>
-      <c r="AR25" s="13"/>
-      <c r="AS25" s="13"/>
-      <c r="AT25" s="13"/>
-      <c r="AU25" s="13"/>
-      <c r="AV25" s="13"/>
-      <c r="AW25" s="13"/>
-      <c r="AX25" s="13"/>
-      <c r="AY25" s="13"/>
-      <c r="AZ25" s="38"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
@@ -13963,6 +14056,4157 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:AZ37"/>
+  <sheetViews>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="66" width="2.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="24">
+        <v>43058</v>
+      </c>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="22">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="25"/>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="26"/>
+    </row>
+    <row r="3" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="28"/>
+    </row>
+    <row r="4" spans="1:52" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34"/>
+      <c r="AS4" s="34"/>
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="34"/>
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="36"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="37"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="37"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="37"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="37"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="44"/>
+      <c r="AI9" s="44"/>
+      <c r="AJ9" s="44"/>
+      <c r="AK9" s="44"/>
+      <c r="AL9" s="44"/>
+      <c r="AM9" s="44"/>
+      <c r="AN9" s="44"/>
+      <c r="AO9" s="44"/>
+      <c r="AP9" s="44"/>
+      <c r="AQ9" s="44"/>
+      <c r="AR9" s="44"/>
+      <c r="AS9" s="44"/>
+      <c r="AT9" s="44"/>
+      <c r="AU9" s="44"/>
+      <c r="AV9" s="44"/>
+      <c r="AW9" s="44"/>
+      <c r="AX9" s="44"/>
+      <c r="AY9" s="44"/>
+      <c r="AZ9" s="45"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="37"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="10"/>
+      <c r="AZ11" s="37"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10"/>
+      <c r="AZ12" s="37"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="37"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="38"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="38"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="38"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="38"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="38"/>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="13"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="13"/>
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="38"/>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="38"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="38"/>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="38"/>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="38"/>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="13"/>
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="13"/>
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="13"/>
+      <c r="AZ24" s="38"/>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="13"/>
+      <c r="AM25" s="13"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="13"/>
+      <c r="AP25" s="13"/>
+      <c r="AQ25" s="13"/>
+      <c r="AR25" s="13"/>
+      <c r="AS25" s="13"/>
+      <c r="AT25" s="13"/>
+      <c r="AU25" s="13"/>
+      <c r="AV25" s="13"/>
+      <c r="AW25" s="13"/>
+      <c r="AX25" s="13"/>
+      <c r="AY25" s="13"/>
+      <c r="AZ25" s="38"/>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="13"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="13"/>
+      <c r="AT26" s="13"/>
+      <c r="AU26" s="13"/>
+      <c r="AV26" s="13"/>
+      <c r="AW26" s="13"/>
+      <c r="AX26" s="13"/>
+      <c r="AY26" s="13"/>
+      <c r="AZ26" s="38"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="13"/>
+      <c r="AM27" s="13"/>
+      <c r="AN27" s="13"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="13"/>
+      <c r="AQ27" s="13"/>
+      <c r="AR27" s="13"/>
+      <c r="AS27" s="13"/>
+      <c r="AT27" s="13"/>
+      <c r="AU27" s="13"/>
+      <c r="AV27" s="13"/>
+      <c r="AW27" s="13"/>
+      <c r="AX27" s="13"/>
+      <c r="AY27" s="13"/>
+      <c r="AZ27" s="38"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="13"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="13"/>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="13"/>
+      <c r="AS28" s="13"/>
+      <c r="AT28" s="13"/>
+      <c r="AU28" s="13"/>
+      <c r="AV28" s="13"/>
+      <c r="AW28" s="13"/>
+      <c r="AX28" s="13"/>
+      <c r="AY28" s="13"/>
+      <c r="AZ28" s="38"/>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="13"/>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="13"/>
+      <c r="AS29" s="13"/>
+      <c r="AT29" s="13"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="13"/>
+      <c r="AW29" s="13"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="13"/>
+      <c r="AZ29" s="38"/>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="13"/>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="13"/>
+      <c r="AT30" s="13"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="13"/>
+      <c r="AW30" s="13"/>
+      <c r="AX30" s="13"/>
+      <c r="AY30" s="13"/>
+      <c r="AZ30" s="38"/>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="13"/>
+      <c r="AM31" s="13"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="13"/>
+      <c r="AQ31" s="13"/>
+      <c r="AR31" s="13"/>
+      <c r="AS31" s="13"/>
+      <c r="AT31" s="13"/>
+      <c r="AU31" s="13"/>
+      <c r="AV31" s="13"/>
+      <c r="AW31" s="13"/>
+      <c r="AX31" s="13"/>
+      <c r="AY31" s="13"/>
+      <c r="AZ31" s="38"/>
+    </row>
+    <row r="32" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="39"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="39"/>
+      <c r="AQ32" s="39"/>
+      <c r="AR32" s="39"/>
+      <c r="AS32" s="39"/>
+      <c r="AT32" s="39"/>
+      <c r="AU32" s="39"/>
+      <c r="AV32" s="39"/>
+      <c r="AW32" s="39"/>
+      <c r="AX32" s="39"/>
+      <c r="AY32" s="39"/>
+      <c r="AZ32" s="40"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="158">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:X32"/>
+    <mergeCell ref="Y32:AZ32"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:X30"/>
+    <mergeCell ref="Y30:AZ30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:X31"/>
+    <mergeCell ref="Y31:AZ31"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:X28"/>
+    <mergeCell ref="Y28:AZ28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:X29"/>
+    <mergeCell ref="Y29:AZ29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:X26"/>
+    <mergeCell ref="Y26:AZ26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:X27"/>
+    <mergeCell ref="Y27:AZ27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="Y24:AZ24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:X25"/>
+    <mergeCell ref="Y25:AZ25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:X22"/>
+    <mergeCell ref="Y22:AZ22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:X23"/>
+    <mergeCell ref="Y23:AZ23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="Y20:AZ20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:X21"/>
+    <mergeCell ref="Y21:AZ21"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="Y18:AZ18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="Y19:AZ19"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="Y16:AZ16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:X17"/>
+    <mergeCell ref="Y17:AZ17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="Y14:AZ14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="Y15:AZ15"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="Y12:AZ12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="Y13:AZ13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="Y10:AZ10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:X11"/>
+    <mergeCell ref="Y11:AZ11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="Y8:AZ8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="Y9:AZ9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:X6"/>
+    <mergeCell ref="Y6:AZ6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:X7"/>
+    <mergeCell ref="Y7:AZ7"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="Y4:AZ4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="Y5:AZ5"/>
+    <mergeCell ref="AT1:AW2"/>
+    <mergeCell ref="AX1:AZ2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:X3"/>
+    <mergeCell ref="Y3:AZ3"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:S2"/>
+    <mergeCell ref="T1:X2"/>
+    <mergeCell ref="Y1:AE2"/>
+    <mergeCell ref="AF1:AK2"/>
+    <mergeCell ref="AL1:AS2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="52" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:AZ37"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:X6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="66" width="2.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="24">
+        <v>43039</v>
+      </c>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="22">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="25"/>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="26"/>
+    </row>
+    <row r="3" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="28"/>
+    </row>
+    <row r="4" spans="1:52" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34"/>
+      <c r="AS4" s="34"/>
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="34"/>
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="36"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="37"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="37"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="37"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="37"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="38"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="38"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="38"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="38"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="38"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="38"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="38"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="38"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="38"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="38"/>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="13"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="13"/>
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="38"/>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="38"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="38"/>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="38"/>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="38"/>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="13"/>
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="13"/>
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="13"/>
+      <c r="AZ24" s="38"/>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="13"/>
+      <c r="AM25" s="13"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="13"/>
+      <c r="AP25" s="13"/>
+      <c r="AQ25" s="13"/>
+      <c r="AR25" s="13"/>
+      <c r="AS25" s="13"/>
+      <c r="AT25" s="13"/>
+      <c r="AU25" s="13"/>
+      <c r="AV25" s="13"/>
+      <c r="AW25" s="13"/>
+      <c r="AX25" s="13"/>
+      <c r="AY25" s="13"/>
+      <c r="AZ25" s="38"/>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="13"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="13"/>
+      <c r="AT26" s="13"/>
+      <c r="AU26" s="13"/>
+      <c r="AV26" s="13"/>
+      <c r="AW26" s="13"/>
+      <c r="AX26" s="13"/>
+      <c r="AY26" s="13"/>
+      <c r="AZ26" s="38"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="13"/>
+      <c r="AM27" s="13"/>
+      <c r="AN27" s="13"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="13"/>
+      <c r="AQ27" s="13"/>
+      <c r="AR27" s="13"/>
+      <c r="AS27" s="13"/>
+      <c r="AT27" s="13"/>
+      <c r="AU27" s="13"/>
+      <c r="AV27" s="13"/>
+      <c r="AW27" s="13"/>
+      <c r="AX27" s="13"/>
+      <c r="AY27" s="13"/>
+      <c r="AZ27" s="38"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="13"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="13"/>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="13"/>
+      <c r="AS28" s="13"/>
+      <c r="AT28" s="13"/>
+      <c r="AU28" s="13"/>
+      <c r="AV28" s="13"/>
+      <c r="AW28" s="13"/>
+      <c r="AX28" s="13"/>
+      <c r="AY28" s="13"/>
+      <c r="AZ28" s="38"/>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="13"/>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="13"/>
+      <c r="AS29" s="13"/>
+      <c r="AT29" s="13"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="13"/>
+      <c r="AW29" s="13"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="13"/>
+      <c r="AZ29" s="38"/>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="13"/>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="13"/>
+      <c r="AT30" s="13"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="13"/>
+      <c r="AW30" s="13"/>
+      <c r="AX30" s="13"/>
+      <c r="AY30" s="13"/>
+      <c r="AZ30" s="38"/>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="13"/>
+      <c r="AM31" s="13"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="13"/>
+      <c r="AQ31" s="13"/>
+      <c r="AR31" s="13"/>
+      <c r="AS31" s="13"/>
+      <c r="AT31" s="13"/>
+      <c r="AU31" s="13"/>
+      <c r="AV31" s="13"/>
+      <c r="AW31" s="13"/>
+      <c r="AX31" s="13"/>
+      <c r="AY31" s="13"/>
+      <c r="AZ31" s="38"/>
+    </row>
+    <row r="32" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="39"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="39"/>
+      <c r="AQ32" s="39"/>
+      <c r="AR32" s="39"/>
+      <c r="AS32" s="39"/>
+      <c r="AT32" s="39"/>
+      <c r="AU32" s="39"/>
+      <c r="AV32" s="39"/>
+      <c r="AW32" s="39"/>
+      <c r="AX32" s="39"/>
+      <c r="AY32" s="39"/>
+      <c r="AZ32" s="40"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="158">
+    <mergeCell ref="AT1:AW2"/>
+    <mergeCell ref="AX1:AZ2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:X3"/>
+    <mergeCell ref="Y3:AZ3"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:S2"/>
+    <mergeCell ref="T1:X2"/>
+    <mergeCell ref="Y1:AE2"/>
+    <mergeCell ref="AF1:AK2"/>
+    <mergeCell ref="AL1:AS2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="Y4:AZ4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="Y5:AZ5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:X6"/>
+    <mergeCell ref="Y6:AZ6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:X7"/>
+    <mergeCell ref="Y7:AZ7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="Y8:AZ8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="Y9:AZ9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="Y10:AZ10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:X11"/>
+    <mergeCell ref="Y11:AZ11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="Y12:AZ12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="Y13:AZ13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="Y14:AZ14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="Y15:AZ15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="Y16:AZ16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:X17"/>
+    <mergeCell ref="Y17:AZ17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="Y18:AZ18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="Y19:AZ19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="Y20:AZ20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:X21"/>
+    <mergeCell ref="Y21:AZ21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:X22"/>
+    <mergeCell ref="Y22:AZ22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:X23"/>
+    <mergeCell ref="Y23:AZ23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="Y24:AZ24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:X25"/>
+    <mergeCell ref="Y25:AZ25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:X26"/>
+    <mergeCell ref="Y26:AZ26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:X27"/>
+    <mergeCell ref="Y27:AZ27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:X28"/>
+    <mergeCell ref="Y28:AZ28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:X29"/>
+    <mergeCell ref="Y29:AZ29"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:X32"/>
+    <mergeCell ref="Y32:AZ32"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:X30"/>
+    <mergeCell ref="Y30:AZ30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:X31"/>
+    <mergeCell ref="Y31:AZ31"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="52" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AZ37"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
@@ -13986,7 +18230,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -14021,7 +18265,7 @@
       <c r="AJ1" s="19"/>
       <c r="AK1" s="19"/>
       <c r="AL1" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="22"/>
       <c r="AN1" s="22"/>

--- a/common/テーブル定義書.xlsx
+++ b/common/テーブル定義書.xlsx
@@ -531,16 +531,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>待ち時間（分）</t>
-    <rPh sb="0" eb="1">
-      <t>マチジカｎ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>フｎ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RelationalURL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -619,6 +609,16 @@
   </si>
   <si>
     <t>RelationalURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待ち時間（分）(CanWaitable=trueのもののみ)</t>
+    <rPh sb="0" eb="1">
+      <t>マチジカｎ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フｎ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4181,7 +4181,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -4206,7 +4206,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z10" s="44"/>
       <c r="AA10" s="44"/>
@@ -5750,7 +5750,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -7782,7 +7782,7 @@
   <dimension ref="A1:AZ37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C18"/>
+      <selection activeCell="BO22" sqref="BO22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8297,7 +8297,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -8322,7 +8322,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z9" s="44"/>
       <c r="AA9" s="44"/>
@@ -8508,7 +8508,7 @@
       <c r="W12" s="10"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="9" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
@@ -9944,7 +9944,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -14080,7 +14080,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -14270,12 +14270,12 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O4" s="42"/>
       <c r="P4" s="42"/>
@@ -14288,7 +14288,7 @@
       <c r="W4" s="42"/>
       <c r="X4" s="43"/>
       <c r="Y4" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z4" s="34"/>
       <c r="AA4" s="34"/>
@@ -14325,7 +14325,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -14350,7 +14350,7 @@
       <c r="W5" s="10"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
@@ -14387,7 +14387,7 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -14399,7 +14399,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -14412,7 +14412,7 @@
       <c r="W6" s="10"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
@@ -14449,7 +14449,7 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -14474,7 +14474,7 @@
       <c r="W7" s="10"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
@@ -14511,7 +14511,7 @@
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -14536,7 +14536,7 @@
       <c r="W8" s="10"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>

--- a/common/テーブル定義書.xlsx
+++ b/common/テーブル定義書.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junpei/Documents/GitHub/17nsj/17nsj-doc/common/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01050\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" tabRatio="598" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MST_Users" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="MobileAppConfig" sheetId="7" r:id="rId8"/>
     <sheet name="テンプレート" sheetId="4" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="120">
   <si>
     <t>テーブル名</t>
     <phoneticPr fontId="1"/>
@@ -167,13 +167,6 @@
   </si>
   <si>
     <t>◯</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar(1), NULL以外</t>
-    <rPh sb="16" eb="18">
-      <t>イガイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -363,10 +356,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bit, NULL以外</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IsAvailable</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -470,18 +459,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>nvarchar(10), NULL以外</t>
-    <rPh sb="18" eb="20">
-      <t>イガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Color</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar(7), NULL以外</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -493,10 +471,6 @@
   </si>
   <si>
     <t>カテゴリのラベルカラー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Activities</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -569,10 +543,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ThumbnailURL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -600,10 +570,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ActivityCategories</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NewsCategories</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -621,11 +587,57 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>char(1), NULL以外</t>
+    <rPh sb="13" eb="15">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char(7), NULL以外</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nvarchar(20), NULL以外</t>
+    <rPh sb="18" eb="20">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ActivityCategories</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Activities</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ThumbnailURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nvarchar(200), NULL以外</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nvarchar(200), NULL以外</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nvarchar(200), NULL以外</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1217,6 +1229,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1484,16 +1499,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AZ37"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
       <selection activeCell="Y9" sqref="Y9:AZ9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="66" width="2.33203125" customWidth="1"/>
+    <col min="1" max="66" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.15">
@@ -1508,7 +1523,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -1545,7 +1560,7 @@
       <c r="AJ1" s="19"/>
       <c r="AK1" s="19"/>
       <c r="AL1" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AM1" s="22"/>
       <c r="AN1" s="22"/>
@@ -1620,7 +1635,7 @@
       <c r="AY2" s="23"/>
       <c r="AZ2" s="26"/>
     </row>
-    <row r="3" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1682,14 +1697,14 @@
       <c r="AY3" s="27"/>
       <c r="AZ3" s="28"/>
     </row>
-    <row r="4" spans="1:52" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1815,7 +1830,7 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -1827,7 +1842,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
@@ -1877,7 +1892,7 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -1939,7 +1954,7 @@
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -2001,7 +2016,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -2026,7 +2041,7 @@
       <c r="W9" s="10"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
@@ -2063,7 +2078,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -2125,7 +2140,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -2137,7 +2152,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
       <c r="N11" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -2150,7 +2165,7 @@
       <c r="W11" s="10"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
@@ -2187,7 +2202,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -2199,7 +2214,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="14"/>
       <c r="N12" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -2212,7 +2227,7 @@
       <c r="W12" s="10"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
@@ -2249,7 +2264,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -2261,7 +2276,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="14"/>
       <c r="N13" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -2274,7 +2289,7 @@
       <c r="W13" s="10"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
@@ -2311,7 +2326,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -2323,7 +2338,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="14"/>
       <c r="N14" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -2336,7 +2351,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
@@ -3284,7 +3299,7 @@
       <c r="AY31" s="13"/>
       <c r="AZ31" s="38"/>
     </row>
-    <row r="32" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -3600,16 +3615,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AZ37"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+      <selection activeCell="A17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="66" width="2.33203125" customWidth="1"/>
+    <col min="1" max="66" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.15">
@@ -3624,7 +3639,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -3661,7 +3676,7 @@
       <c r="AJ1" s="19"/>
       <c r="AK1" s="19"/>
       <c r="AL1" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM1" s="22"/>
       <c r="AN1" s="22"/>
@@ -3736,7 +3751,7 @@
       <c r="AY2" s="23"/>
       <c r="AZ2" s="26"/>
     </row>
-    <row r="3" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3798,7 +3813,7 @@
       <c r="AY3" s="27"/>
       <c r="AZ3" s="28"/>
     </row>
-    <row r="4" spans="1:52" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3819,7 +3834,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="41" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="O4" s="42"/>
       <c r="P4" s="42"/>
@@ -3832,7 +3847,7 @@
       <c r="W4" s="42"/>
       <c r="X4" s="43"/>
       <c r="Y4" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z4" s="34"/>
       <c r="AA4" s="34"/>
@@ -3869,7 +3884,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -3883,7 +3898,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -3896,7 +3911,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
@@ -3945,7 +3960,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
@@ -3958,7 +3973,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
@@ -4007,7 +4022,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
@@ -4020,7 +4035,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
@@ -4069,7 +4084,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
@@ -4082,7 +4097,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z8" s="44"/>
       <c r="AA8" s="44"/>
@@ -4131,7 +4146,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
@@ -4144,7 +4159,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z9" s="44"/>
       <c r="AA9" s="44"/>
@@ -4181,7 +4196,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -4193,7 +4208,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
@@ -4206,7 +4221,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="44" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Z10" s="44"/>
       <c r="AA10" s="44"/>
@@ -4242,20 +4257,20 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
+      <c r="D11" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -4267,8 +4282,8 @@
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
       <c r="X11" s="11"/>
-      <c r="Y11" s="9" t="s">
-        <v>33</v>
+      <c r="Y11" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
@@ -4304,33 +4319,33 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="10" t="s">
-        <v>41</v>
+      <c r="D12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
@@ -4366,33 +4381,33 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="9" t="s">
+      <c r="D13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
@@ -4429,7 +4444,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -4441,7 +4456,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="14"/>
       <c r="N14" s="9" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -4454,7 +4469,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="9" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
@@ -4491,7 +4506,7 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -4503,7 +4518,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="14"/>
       <c r="N15" s="9" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -4516,7 +4531,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
@@ -4547,31 +4562,39 @@
       <c r="AZ15" s="37"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="10"/>
+      <c r="D16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
@@ -4611,9 +4634,9 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="9"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -4658,28 +4681,28 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="9"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
@@ -4766,109 +4789,109 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13"/>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="13"/>
-      <c r="AX20" s="13"/>
-      <c r="AY20" s="13"/>
-      <c r="AZ20" s="38"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="10"/>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
+      <c r="AV20" s="10"/>
+      <c r="AW20" s="10"/>
+      <c r="AX20" s="10"/>
+      <c r="AY20" s="10"/>
+      <c r="AZ20" s="37"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="13"/>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="13"/>
-      <c r="AW21" s="13"/>
-      <c r="AX21" s="13"/>
-      <c r="AY21" s="13"/>
-      <c r="AZ21" s="38"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="10"/>
+      <c r="AS21" s="10"/>
+      <c r="AT21" s="10"/>
+      <c r="AU21" s="10"/>
+      <c r="AV21" s="10"/>
+      <c r="AW21" s="10"/>
+      <c r="AX21" s="10"/>
+      <c r="AY21" s="10"/>
+      <c r="AZ21" s="37"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
@@ -5410,7 +5433,7 @@
       <c r="AY31" s="13"/>
       <c r="AZ31" s="38"/>
     </row>
-    <row r="32" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -5726,16 +5749,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AZ37"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:AZ3"/>
+      <selection activeCell="D7" sqref="D7:AZ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="66" width="2.33203125" customWidth="1"/>
+    <col min="1" max="66" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.15">
@@ -5750,7 +5773,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -5787,7 +5810,7 @@
       <c r="AJ1" s="19"/>
       <c r="AK1" s="19"/>
       <c r="AL1" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AM1" s="22"/>
       <c r="AN1" s="22"/>
@@ -5862,7 +5885,7 @@
       <c r="AY2" s="23"/>
       <c r="AZ2" s="26"/>
     </row>
-    <row r="3" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5924,7 +5947,7 @@
       <c r="AY3" s="27"/>
       <c r="AZ3" s="28"/>
     </row>
-    <row r="4" spans="1:52" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -5945,7 +5968,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="41" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="O4" s="42"/>
       <c r="P4" s="42"/>
@@ -5958,7 +5981,7 @@
       <c r="W4" s="42"/>
       <c r="X4" s="43"/>
       <c r="Y4" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z4" s="34"/>
       <c r="AA4" s="34"/>
@@ -5995,7 +6018,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -6007,7 +6030,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="15" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -6020,7 +6043,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
@@ -6057,7 +6080,7 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -6069,7 +6092,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="15" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
@@ -6082,7 +6105,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
@@ -6113,10 +6136,14 @@
       <c r="AZ6" s="37"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -6126,18 +6153,22 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="10"/>
+      <c r="N7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="10"/>
@@ -7462,7 +7493,7 @@
       <c r="AY31" s="13"/>
       <c r="AZ31" s="38"/>
     </row>
-    <row r="32" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -7778,16 +7809,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AZ37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="BO22" sqref="BO22"/>
+      <selection activeCell="D10" sqref="D10:AZ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="66" width="2.33203125" customWidth="1"/>
+    <col min="1" max="66" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.15">
@@ -7802,7 +7833,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -7839,7 +7870,7 @@
       <c r="AJ1" s="19"/>
       <c r="AK1" s="19"/>
       <c r="AL1" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AM1" s="22"/>
       <c r="AN1" s="22"/>
@@ -7914,7 +7945,7 @@
       <c r="AY2" s="23"/>
       <c r="AZ2" s="26"/>
     </row>
-    <row r="3" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7976,7 +8007,7 @@
       <c r="AY3" s="27"/>
       <c r="AZ3" s="28"/>
     </row>
-    <row r="4" spans="1:52" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -7997,7 +8028,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="41" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="O4" s="42"/>
       <c r="P4" s="42"/>
@@ -8010,7 +8041,7 @@
       <c r="W4" s="42"/>
       <c r="X4" s="43"/>
       <c r="Y4" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z4" s="34"/>
       <c r="AA4" s="34"/>
@@ -8047,7 +8078,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -8061,7 +8092,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -8074,7 +8105,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
@@ -8123,7 +8154,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
@@ -8136,7 +8167,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
@@ -8185,7 +8216,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
@@ -8198,7 +8229,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z7" s="44"/>
       <c r="AA7" s="44"/>
@@ -8247,7 +8278,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
@@ -8260,7 +8291,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z8" s="44"/>
       <c r="AA8" s="44"/>
@@ -8297,7 +8328,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -8309,7 +8340,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
@@ -8322,7 +8353,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="44" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Z9" s="44"/>
       <c r="AA9" s="44"/>
@@ -8358,20 +8389,20 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="D10" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="9" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
@@ -8383,36 +8414,36 @@
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
       <c r="X10" s="11"/>
-      <c r="Y10" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="44"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
-      <c r="AU10" s="44"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="44"/>
-      <c r="AX10" s="44"/>
-      <c r="AY10" s="44"/>
-      <c r="AZ10" s="45"/>
+      <c r="Y10" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="37"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -8420,61 +8451,61 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="D11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="10"/>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="10"/>
-      <c r="AW11" s="10"/>
-      <c r="AX11" s="10"/>
-      <c r="AY11" s="10"/>
-      <c r="AZ11" s="37"/>
+      <c r="N11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="44"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44"/>
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="44"/>
+      <c r="AO11" s="44"/>
+      <c r="AP11" s="44"/>
+      <c r="AQ11" s="44"/>
+      <c r="AR11" s="44"/>
+      <c r="AS11" s="44"/>
+      <c r="AT11" s="44"/>
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="44"/>
+      <c r="AW11" s="44"/>
+      <c r="AX11" s="44"/>
+      <c r="AY11" s="44"/>
+      <c r="AZ11" s="45"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -8482,33 +8513,33 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="9" t="s">
-        <v>116</v>
+      <c r="D12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
@@ -8545,7 +8576,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -8553,11 +8584,11 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
       <c r="N13" s="9" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -8569,36 +8600,36 @@
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
       <c r="X13" s="11"/>
-      <c r="Y13" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="44"/>
-      <c r="AK13" s="44"/>
-      <c r="AL13" s="44"/>
-      <c r="AM13" s="44"/>
-      <c r="AN13" s="44"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="44"/>
-      <c r="AW13" s="44"/>
-      <c r="AX13" s="44"/>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="45"/>
+      <c r="Y13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="37"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -8606,61 +8637,61 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="D14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
-      <c r="AV14" s="10"/>
-      <c r="AW14" s="10"/>
-      <c r="AX14" s="10"/>
-      <c r="AY14" s="10"/>
-      <c r="AZ14" s="37"/>
+      <c r="N14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="44"/>
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="44"/>
+      <c r="AN14" s="44"/>
+      <c r="AO14" s="44"/>
+      <c r="AP14" s="44"/>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="44"/>
+      <c r="AS14" s="44"/>
+      <c r="AT14" s="44"/>
+      <c r="AU14" s="44"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="45"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -8668,33 +8699,33 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="9" t="s">
+      <c r="D15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
@@ -8731,7 +8762,7 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -8743,7 +8774,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="14"/>
       <c r="N16" s="9" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -8756,7 +8787,7 @@
       <c r="W16" s="10"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="9" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
@@ -8793,7 +8824,7 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -8805,7 +8836,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="14"/>
       <c r="N17" s="9" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -8818,7 +8849,7 @@
       <c r="W17" s="10"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
@@ -8849,20 +8880,26 @@
       <c r="AZ17" s="37"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
+      <c r="A18" s="7">
+        <v>15</v>
+      </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="9"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
@@ -8873,34 +8910,36 @@
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="44"/>
-      <c r="AI18" s="44"/>
-      <c r="AJ18" s="44"/>
-      <c r="AK18" s="44"/>
-      <c r="AL18" s="44"/>
-      <c r="AM18" s="44"/>
-      <c r="AN18" s="44"/>
-      <c r="AO18" s="44"/>
-      <c r="AP18" s="44"/>
-      <c r="AQ18" s="44"/>
-      <c r="AR18" s="44"/>
-      <c r="AS18" s="44"/>
-      <c r="AT18" s="44"/>
-      <c r="AU18" s="44"/>
-      <c r="AV18" s="44"/>
-      <c r="AW18" s="44"/>
-      <c r="AX18" s="44"/>
-      <c r="AY18" s="44"/>
-      <c r="AZ18" s="45"/>
+      <c r="Y18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="37"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -8967,9 +9006,9 @@
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
       <c r="N20" s="9"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -8981,115 +9020,115 @@
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-      <c r="AL20" s="10"/>
-      <c r="AM20" s="10"/>
-      <c r="AN20" s="10"/>
-      <c r="AO20" s="10"/>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="10"/>
-      <c r="AV20" s="10"/>
-      <c r="AW20" s="10"/>
-      <c r="AX20" s="10"/>
-      <c r="AY20" s="10"/>
-      <c r="AZ20" s="37"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="44"/>
+      <c r="AK20" s="44"/>
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="44"/>
+      <c r="AN20" s="44"/>
+      <c r="AO20" s="44"/>
+      <c r="AP20" s="44"/>
+      <c r="AQ20" s="44"/>
+      <c r="AR20" s="44"/>
+      <c r="AS20" s="44"/>
+      <c r="AT20" s="44"/>
+      <c r="AU20" s="44"/>
+      <c r="AV20" s="44"/>
+      <c r="AW20" s="44"/>
+      <c r="AX20" s="44"/>
+      <c r="AY20" s="44"/>
+      <c r="AZ20" s="45"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="44"/>
-      <c r="AI21" s="44"/>
-      <c r="AJ21" s="44"/>
-      <c r="AK21" s="44"/>
-      <c r="AL21" s="44"/>
-      <c r="AM21" s="44"/>
-      <c r="AN21" s="44"/>
-      <c r="AO21" s="44"/>
-      <c r="AP21" s="44"/>
-      <c r="AQ21" s="44"/>
-      <c r="AR21" s="44"/>
-      <c r="AS21" s="44"/>
-      <c r="AT21" s="44"/>
-      <c r="AU21" s="44"/>
-      <c r="AV21" s="44"/>
-      <c r="AW21" s="44"/>
-      <c r="AX21" s="44"/>
-      <c r="AY21" s="44"/>
-      <c r="AZ21" s="45"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="10"/>
+      <c r="AS21" s="10"/>
+      <c r="AT21" s="10"/>
+      <c r="AU21" s="10"/>
+      <c r="AV21" s="10"/>
+      <c r="AW21" s="10"/>
+      <c r="AX21" s="10"/>
+      <c r="AY21" s="10"/>
+      <c r="AZ21" s="37"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="9"/>
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
@@ -9129,9 +9168,9 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="14"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="9"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -9143,61 +9182,61 @@
       <c r="V23" s="10"/>
       <c r="W23" s="10"/>
       <c r="X23" s="11"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="10"/>
-      <c r="AO23" s="10"/>
-      <c r="AP23" s="10"/>
-      <c r="AQ23" s="10"/>
-      <c r="AR23" s="10"/>
-      <c r="AS23" s="10"/>
-      <c r="AT23" s="10"/>
-      <c r="AU23" s="10"/>
-      <c r="AV23" s="10"/>
-      <c r="AW23" s="10"/>
-      <c r="AX23" s="10"/>
-      <c r="AY23" s="10"/>
-      <c r="AZ23" s="37"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="44"/>
+      <c r="AJ23" s="44"/>
+      <c r="AK23" s="44"/>
+      <c r="AL23" s="44"/>
+      <c r="AM23" s="44"/>
+      <c r="AN23" s="44"/>
+      <c r="AO23" s="44"/>
+      <c r="AP23" s="44"/>
+      <c r="AQ23" s="44"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="44"/>
+      <c r="AU23" s="44"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="45"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="9"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
@@ -9284,109 +9323,109 @@
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="13"/>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-      <c r="AP26" s="13"/>
-      <c r="AQ26" s="13"/>
-      <c r="AR26" s="13"/>
-      <c r="AS26" s="13"/>
-      <c r="AT26" s="13"/>
-      <c r="AU26" s="13"/>
-      <c r="AV26" s="13"/>
-      <c r="AW26" s="13"/>
-      <c r="AX26" s="13"/>
-      <c r="AY26" s="13"/>
-      <c r="AZ26" s="38"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="10"/>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="37"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="13"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="13"/>
-      <c r="AP27" s="13"/>
-      <c r="AQ27" s="13"/>
-      <c r="AR27" s="13"/>
-      <c r="AS27" s="13"/>
-      <c r="AT27" s="13"/>
-      <c r="AU27" s="13"/>
-      <c r="AV27" s="13"/>
-      <c r="AW27" s="13"/>
-      <c r="AX27" s="13"/>
-      <c r="AY27" s="13"/>
-      <c r="AZ27" s="38"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="10"/>
+      <c r="AQ27" s="10"/>
+      <c r="AR27" s="10"/>
+      <c r="AS27" s="10"/>
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="10"/>
+      <c r="AV27" s="10"/>
+      <c r="AW27" s="10"/>
+      <c r="AX27" s="10"/>
+      <c r="AY27" s="10"/>
+      <c r="AZ27" s="37"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
@@ -9604,7 +9643,7 @@
       <c r="AY31" s="13"/>
       <c r="AZ31" s="38"/>
     </row>
-    <row r="32" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -9920,16 +9959,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AZ37"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:S2"/>
+      <selection activeCell="N6" sqref="N6:X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="66" width="2.33203125" customWidth="1"/>
+    <col min="1" max="66" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.15">
@@ -9944,7 +9983,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -9981,7 +10020,7 @@
       <c r="AJ1" s="19"/>
       <c r="AK1" s="19"/>
       <c r="AL1" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AM1" s="22"/>
       <c r="AN1" s="22"/>
@@ -10056,7 +10095,7 @@
       <c r="AY2" s="23"/>
       <c r="AZ2" s="26"/>
     </row>
-    <row r="3" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -10118,7 +10157,7 @@
       <c r="AY3" s="27"/>
       <c r="AZ3" s="28"/>
     </row>
-    <row r="4" spans="1:52" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -10139,7 +10178,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="41" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="O4" s="42"/>
       <c r="P4" s="42"/>
@@ -10152,7 +10191,7 @@
       <c r="W4" s="42"/>
       <c r="X4" s="43"/>
       <c r="Y4" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z4" s="34"/>
       <c r="AA4" s="34"/>
@@ -10189,7 +10228,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -10201,7 +10240,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="15" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -10214,7 +10253,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
@@ -10251,7 +10290,7 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -10263,7 +10302,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="15" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
@@ -10276,7 +10315,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
@@ -10307,10 +10346,14 @@
       <c r="AZ6" s="37"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -10320,18 +10363,22 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="10"/>
+      <c r="N7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="10"/>
@@ -11656,7 +11703,7 @@
       <c r="AY31" s="13"/>
       <c r="AZ31" s="38"/>
     </row>
-    <row r="32" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -11972,16 +12019,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AZ37"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
+      <selection activeCell="Y13" sqref="Y13:AZ13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="66" width="2.33203125" customWidth="1"/>
+    <col min="1" max="66" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.15">
@@ -11996,7 +12043,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -12033,7 +12080,7 @@
       <c r="AJ1" s="19"/>
       <c r="AK1" s="19"/>
       <c r="AL1" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AM1" s="22"/>
       <c r="AN1" s="22"/>
@@ -12108,7 +12155,7 @@
       <c r="AY2" s="23"/>
       <c r="AZ2" s="26"/>
     </row>
-    <row r="3" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -12170,14 +12217,14 @@
       <c r="AY3" s="27"/>
       <c r="AZ3" s="28"/>
     </row>
-    <row r="4" spans="1:52" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -12191,7 +12238,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
@@ -12204,7 +12251,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
@@ -12241,7 +12288,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -12253,7 +12300,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -12266,7 +12313,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
@@ -12303,7 +12350,7 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -12315,7 +12362,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="15" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
@@ -12328,7 +12375,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
@@ -12365,7 +12412,7 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="15" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -12376,21 +12423,21 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
+      <c r="N7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="11"/>
       <c r="Y7" s="10" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
@@ -12426,33 +12473,33 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="9" t="s">
+      <c r="D8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
@@ -12489,7 +12536,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -12501,7 +12548,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="14"/>
       <c r="N9" s="9" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -12514,7 +12561,7 @@
       <c r="W9" s="10"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="9" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
@@ -12551,7 +12598,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -12563,7 +12610,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="14"/>
       <c r="N10" s="9" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
@@ -12576,7 +12623,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
@@ -12607,10 +12654,14 @@
       <c r="AZ10" s="37"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -12620,7 +12671,9 @@
       <c r="K11" s="12"/>
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="9"/>
+      <c r="N11" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
@@ -12631,7 +12684,9 @@
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
       <c r="X11" s="11"/>
-      <c r="Y11" s="9"/>
+      <c r="Y11" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
@@ -12772,28 +12827,28 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="12"/>
       <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
@@ -12826,136 +12881,136 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="13"/>
-      <c r="AW15" s="13"/>
-      <c r="AX15" s="13"/>
-      <c r="AY15" s="13"/>
-      <c r="AZ15" s="38"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="37"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="13"/>
-      <c r="AW16" s="13"/>
-      <c r="AX16" s="13"/>
-      <c r="AY16" s="13"/>
-      <c r="AZ16" s="38"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="37"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="9"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
@@ -12995,48 +13050,48 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="44"/>
-      <c r="AI18" s="44"/>
-      <c r="AJ18" s="44"/>
-      <c r="AK18" s="44"/>
-      <c r="AL18" s="44"/>
-      <c r="AM18" s="44"/>
-      <c r="AN18" s="44"/>
-      <c r="AO18" s="44"/>
-      <c r="AP18" s="44"/>
-      <c r="AQ18" s="44"/>
-      <c r="AR18" s="44"/>
-      <c r="AS18" s="44"/>
-      <c r="AT18" s="44"/>
-      <c r="AU18" s="44"/>
-      <c r="AV18" s="44"/>
-      <c r="AW18" s="44"/>
-      <c r="AX18" s="44"/>
-      <c r="AY18" s="44"/>
-      <c r="AZ18" s="45"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="37"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -13740,7 +13795,7 @@
       <c r="AY31" s="13"/>
       <c r="AZ31" s="38"/>
     </row>
-    <row r="32" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -14056,16 +14111,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AZ37"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C13"/>
+    <sheetView topLeftCell="A4" zoomScale="116" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:AZ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="66" width="2.33203125" customWidth="1"/>
+    <col min="1" max="66" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.15">
@@ -14080,7 +14135,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -14117,7 +14172,7 @@
       <c r="AJ1" s="19"/>
       <c r="AK1" s="19"/>
       <c r="AL1" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AM1" s="22"/>
       <c r="AN1" s="22"/>
@@ -14192,7 +14247,7 @@
       <c r="AY2" s="23"/>
       <c r="AZ2" s="26"/>
     </row>
-    <row r="3" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -14254,14 +14309,14 @@
       <c r="AY3" s="27"/>
       <c r="AZ3" s="28"/>
     </row>
-    <row r="4" spans="1:52" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -14270,12 +14325,12 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="41" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="O4" s="42"/>
       <c r="P4" s="42"/>
@@ -14288,7 +14343,7 @@
       <c r="W4" s="42"/>
       <c r="X4" s="43"/>
       <c r="Y4" s="33" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="Z4" s="34"/>
       <c r="AA4" s="34"/>
@@ -14325,7 +14380,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -14337,7 +14392,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -14350,7 +14405,7 @@
       <c r="W5" s="10"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
@@ -14387,7 +14442,7 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -14399,7 +14454,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -14412,7 +14467,7 @@
       <c r="W6" s="10"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
@@ -14449,7 +14504,7 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="15" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -14461,7 +14516,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="9" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -14474,7 +14529,7 @@
       <c r="W7" s="10"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
@@ -14511,7 +14566,7 @@
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -14523,7 +14578,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -14536,7 +14591,7 @@
       <c r="W8" s="10"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
@@ -14573,7 +14628,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -14598,7 +14653,7 @@
       <c r="W9" s="10"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z9" s="44"/>
       <c r="AA9" s="44"/>
@@ -14635,7 +14690,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -14647,7 +14702,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="14"/>
       <c r="N10" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
@@ -14660,7 +14715,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
@@ -14697,7 +14752,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -14709,7 +14764,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
       <c r="N11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -14722,7 +14777,7 @@
       <c r="W11" s="10"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
@@ -14759,7 +14814,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -14771,7 +14826,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="14"/>
       <c r="N12" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -14784,7 +14839,7 @@
       <c r="W12" s="10"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
@@ -14821,7 +14876,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -14833,7 +14888,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="14"/>
       <c r="N13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -14846,7 +14901,7 @@
       <c r="W13" s="10"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
@@ -15848,7 +15903,7 @@
       <c r="AY31" s="13"/>
       <c r="AZ31" s="38"/>
     </row>
-    <row r="32" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -16164,16 +16219,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AZ37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:X6"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="BN21" sqref="BN21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="66" width="2.33203125" customWidth="1"/>
+    <col min="1" max="66" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.15">
@@ -16188,7 +16243,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -16225,7 +16280,7 @@
       <c r="AJ1" s="19"/>
       <c r="AK1" s="19"/>
       <c r="AL1" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AM1" s="22"/>
       <c r="AN1" s="22"/>
@@ -16300,7 +16355,7 @@
       <c r="AY2" s="23"/>
       <c r="AZ2" s="26"/>
     </row>
-    <row r="3" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -16362,14 +16417,14 @@
       <c r="AY3" s="27"/>
       <c r="AZ3" s="28"/>
     </row>
-    <row r="4" spans="1:52" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -16381,7 +16436,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O4" s="42"/>
       <c r="P4" s="42"/>
@@ -16394,7 +16449,7 @@
       <c r="W4" s="42"/>
       <c r="X4" s="43"/>
       <c r="Y4" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z4" s="34"/>
       <c r="AA4" s="34"/>
@@ -16431,7 +16486,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -16456,7 +16511,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
@@ -17890,7 +17945,7 @@
       <c r="AY31" s="13"/>
       <c r="AZ31" s="38"/>
     </row>
-    <row r="32" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -18206,16 +18261,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AZ37"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="66" width="2.33203125" customWidth="1"/>
+    <col min="1" max="66" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.15">
@@ -18230,7 +18285,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -18265,7 +18320,7 @@
       <c r="AJ1" s="19"/>
       <c r="AK1" s="19"/>
       <c r="AL1" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AM1" s="22"/>
       <c r="AN1" s="22"/>
@@ -18340,7 +18395,7 @@
       <c r="AY2" s="23"/>
       <c r="AZ2" s="26"/>
     </row>
-    <row r="3" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -18402,7 +18457,7 @@
       <c r="AY3" s="27"/>
       <c r="AZ3" s="28"/>
     </row>
-    <row r="4" spans="1:52" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -19924,7 +19979,7 @@
       <c r="AY31" s="13"/>
       <c r="AZ31" s="38"/>
     </row>
-    <row r="32" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
